--- a/04_Modelling/01_benthic/01_BRUVs/BRT_Output_bruvs/contrib_mod_best_fixed_reduced_richness_tot_gaussian.xlsx
+++ b/04_Modelling/01_benthic/01_BRUVs/BRT_Output_bruvs/contrib_mod_best_fixed_reduced_richness_tot_gaussian.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>47.02644121915321</v>
+        <v>45.40310478019458</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>31.0315986193227</v>
+        <v>32.7001267189043</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>12.56996546338404</v>
+        <v>12.59294591082336</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>9.371994698140039</v>
+        <v>9.303822590077775</v>
       </c>
     </row>
   </sheetData>

--- a/04_Modelling/01_benthic/01_BRUVs/BRT_Output_bruvs/contrib_mod_best_fixed_reduced_richness_tot_gaussian.xlsx
+++ b/04_Modelling/01_benthic/01_BRUVs/BRT_Output_bruvs/contrib_mod_best_fixed_reduced_richness_tot_gaussian.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>45.40310478019458</v>
+        <v>47.01035230438617</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>32.7001267189043</v>
+        <v>31.17920051575058</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>12.59294591082336</v>
+        <v>12.73387576215871</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>9.303822590077775</v>
+        <v>9.076571417704546</v>
       </c>
     </row>
   </sheetData>

--- a/04_Modelling/01_benthic/01_BRUVs/BRT_Output_bruvs/contrib_mod_best_fixed_reduced_richness_tot_gaussian.xlsx
+++ b/04_Modelling/01_benthic/01_BRUVs/BRT_Output_bruvs/contrib_mod_best_fixed_reduced_richness_tot_gaussian.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>47.01035230438617</v>
+        <v>45.76760875408854</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>31.17920051575058</v>
+        <v>32.08920247651583</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>12.73387576215871</v>
+        <v>12.59201073713469</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>9.076571417704546</v>
+        <v>9.551178032260943</v>
       </c>
     </row>
   </sheetData>
